--- a/doc/优质书籍推荐.xlsx
+++ b/doc/优质书籍推荐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="25068" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+  <si>
+    <t>英文书名</t>
+  </si>
+  <si>
+    <t>书名</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>主要内容</t>
+  </si>
   <si>
     <t>"Broken Money"</t>
   </si>
@@ -171,6 +186,243 @@
   </si>
   <si>
     <t>强调专注于最重要事情的生活和工作哲学。</t>
+  </si>
+  <si>
+    <t>Reminiscences of a Stock Operator</t>
+  </si>
+  <si>
+    <t>股票大作手回忆录</t>
+  </si>
+  <si>
+    <t>Edwin Lefèvre</t>
+  </si>
+  <si>
+    <t>投资/交易</t>
+  </si>
+  <si>
+    <t>本书记录了杰西·利弗莫尔的生平和交易思想，是经典的交易心理和策略书籍。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>期货大作手风云录</t>
+  </si>
+  <si>
+    <t>青泽</t>
+  </si>
+  <si>
+    <t>记录了多个成功期货交易者的故事和策略，分析了期货市场的特点和投资技巧。</t>
+  </si>
+  <si>
+    <t>十年一梦</t>
+  </si>
+  <si>
+    <t>讲述了作者从期货市场中获得经验教训的故事，分析了市场规律和交易心理。</t>
+  </si>
+  <si>
+    <t>期货交易策略</t>
+  </si>
+  <si>
+    <t>鲍尔·卡萨诺瓦</t>
+  </si>
+  <si>
+    <t>本书介绍了各种期货市场中的交易策略和技术分析方法，帮助交易者制定有效的投资计划。</t>
+  </si>
+  <si>
+    <t>价格形态解密</t>
+  </si>
+  <si>
+    <t>技术分析</t>
+  </si>
+  <si>
+    <t>解析了技术分析中的各种价格形态，帮助交易者理解市场趋势和反转信号。</t>
+  </si>
+  <si>
+    <t>PriceAction+Protocol+V2.0</t>
+  </si>
+  <si>
+    <t>详细介绍了价格行为交易策略和协议，适合进阶交易者使用。</t>
+  </si>
+  <si>
+    <t>cis 股票交易术</t>
+  </si>
+  <si>
+    <t>cis</t>
+  </si>
+  <si>
+    <t>cis 是日本著名的短线交易者，本书分享了他的交易理念和策略。</t>
+  </si>
+  <si>
+    <t>Market Wizards</t>
+  </si>
+  <si>
+    <t>金融怪杰</t>
+  </si>
+  <si>
+    <t>Jack D. Schwager</t>
+  </si>
+  <si>
+    <t>本书通过采访顶尖交易员，揭示了他们的成功秘诀和交易技巧。</t>
+  </si>
+  <si>
+    <t>Trading for a Living</t>
+  </si>
+  <si>
+    <t>以交易为生</t>
+  </si>
+  <si>
+    <t>Alexander Elder</t>
+  </si>
+  <si>
+    <t>介绍了交易心理、风险管理和技术分析，适合职业交易员或有志于成为职业交易员的人士。</t>
+  </si>
+  <si>
+    <t>Poor Charlie's Almanack</t>
+  </si>
+  <si>
+    <t>穷查理宝典</t>
+  </si>
+  <si>
+    <t>Charles T. Munger</t>
+  </si>
+  <si>
+    <t>投资哲学</t>
+  </si>
+  <si>
+    <t>查理·芒格的投资和生活哲学集成，涵盖多方面的智慧和洞见。</t>
+  </si>
+  <si>
+    <t>Fooled by Randomness</t>
+  </si>
+  <si>
+    <t>随机漫步的傻瓜</t>
+  </si>
+  <si>
+    <t>Nassim Nicholas Taleb</t>
+  </si>
+  <si>
+    <t>投资/心理学</t>
+  </si>
+  <si>
+    <t>探讨了随机性在金融市场中的作用，以及人类在应对随机事件时常犯的错误。</t>
+  </si>
+  <si>
+    <t>让时间陪你慢慢变富</t>
+  </si>
+  <si>
+    <t>李笑来</t>
+  </si>
+  <si>
+    <t>理财/个人成长</t>
+  </si>
+  <si>
+    <t>作者分享了如何通过时间和复利的力量，实现财富的长期积累。</t>
+  </si>
+  <si>
+    <t>把时间当朋友</t>
+  </si>
+  <si>
+    <t>个人成长</t>
+  </si>
+  <si>
+    <t>本书通过作者的经验，教导读者如何管理时间，实现个人成长。</t>
+  </si>
+  <si>
+    <t>The Path to Wealth</t>
+  </si>
+  <si>
+    <t>财富自由之路</t>
+  </si>
+  <si>
+    <t>Bodo Schäfer</t>
+  </si>
+  <si>
+    <t>理财/投资</t>
+  </si>
+  <si>
+    <t>介绍了实现财务自由的路径和步骤，提供了实际可行的理财建议。</t>
+  </si>
+  <si>
+    <t>Antifragile</t>
+  </si>
+  <si>
+    <t>反脆弱</t>
+  </si>
+  <si>
+    <t>探讨了在不确定性和混乱中如何变得更强大，以及如何利用“反脆弱”在风险中获益。</t>
+  </si>
+  <si>
+    <t>The Black Swan</t>
+  </si>
+  <si>
+    <t>黑天鹅</t>
+  </si>
+  <si>
+    <t>投资/风险管理</t>
+  </si>
+  <si>
+    <t>本书分析了“黑天鹅事件”——不可预测且影响巨大的事件，并提出应对之策。</t>
+  </si>
+  <si>
+    <t>The Snowball</t>
+  </si>
+  <si>
+    <t>滚雪球</t>
+  </si>
+  <si>
+    <t>Alice Schroeder</t>
+  </si>
+  <si>
+    <t>传记/投资</t>
+  </si>
+  <si>
+    <t>记录了沃伦·巴菲特的生平及其投资理念，被誉为“投资圣经”。</t>
+  </si>
+  <si>
+    <t>The Millionaire Next Door</t>
+  </si>
+  <si>
+    <t>邻家的百万富翁</t>
+  </si>
+  <si>
+    <t>Thomas J. Stanley</t>
+  </si>
+  <si>
+    <t>通过研究美国的百万富翁，揭示了他们的理财习惯和财富积累之道。</t>
+  </si>
+  <si>
+    <t>Rich Dad Poor Dad</t>
+  </si>
+  <si>
+    <t>穷爸爸富爸爸</t>
+  </si>
+  <si>
+    <t>Robert T. Kiyosaki</t>
+  </si>
+  <si>
+    <t>通过两位“父亲”的理财理念对比，传授财富管理和投资的基础知识。</t>
+  </si>
+  <si>
+    <t>The Courage to Be Disliked</t>
+  </si>
+  <si>
+    <t>被讨厌的勇气</t>
+  </si>
+  <si>
+    <t>Ichiro Kishimi &amp; Fumitake Koga</t>
+  </si>
+  <si>
+    <t>心理学/哲学</t>
+  </si>
+  <si>
+    <t>基于阿德勒心理学，讨论如何摆脱他人评价的束缚，活出自我。</t>
+  </si>
+  <si>
+    <t>稳定获利</t>
+  </si>
+  <si>
+    <t>本书介绍了如何通过稳定的策略和心理管理，实现长期获利。</t>
   </si>
 </sst>
 </file>
@@ -183,13 +435,32 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -656,142 +927,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1318,22 +1610,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="44.25" customWidth="1"/>
+    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="43.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="24.6111111111111" customWidth="1"/>
+    <col min="5" max="5" width="41.3703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:5">
+    <row r="1" ht="18.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,157 +1642,531 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="67.5" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="54" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="67.5" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="35" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="35" customHeight="1" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" ht="35" customHeight="1" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" ht="35" customHeight="1" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" ht="51.5" customHeight="1" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
